--- a/c1dataset/Indian Coordinates.xlsx
+++ b/c1dataset/Indian Coordinates.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parulpandey/Desktop/Covid India/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2F00E6-4B59-C14B-A0F8-F070259AF1F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="1260" windowWidth="28040" windowHeight="17440" xr2:uid="{E9B2B5C5-5E08-8442-9075-1EE79A76BD21}"/>
+    <workbookView xWindow="10365" yWindow="1260" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">Andaman And Nicobar </t>
   </si>
@@ -147,13 +141,16 @@
   </si>
   <si>
     <t>Uttarakhand</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,6 +182,12 @@
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -206,12 +209,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -272,7 +276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -324,7 +328,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -518,27 +522,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD34A94-1062-A549-B4FD-F8D322BB6A03}">
-  <dimension ref="A1:D36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="39.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29">
+    <row r="1" spans="1:3" ht="28.5">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -661,254 +663,254 @@
     </row>
     <row r="12" spans="1:3" ht="18">
       <c r="A12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="2">
-        <v>28.450006330000001</v>
-      </c>
-      <c r="C12" s="2">
-        <v>77.019991009999998</v>
+        <v>38</v>
+      </c>
+      <c r="B12" s="5">
+        <v>22.309425000000001</v>
+      </c>
+      <c r="C12" s="5">
+        <v>72.136229999999998</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2">
-        <v>31.10002545</v>
+        <v>28.450006330000001</v>
       </c>
       <c r="C13" s="2">
-        <v>77.166597039999999</v>
+        <v>77.019991009999998</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2">
-        <v>33.450000000000003</v>
+        <v>31.10002545</v>
       </c>
       <c r="C14" s="2">
-        <v>76.239999999999995</v>
+        <v>77.166597039999999</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>23.800393490000001</v>
+        <v>33.450000000000003</v>
       </c>
       <c r="C15" s="2">
-        <v>86.41998572</v>
+        <v>76.239999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18">
       <c r="A16" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B16" s="2">
-        <v>12.57038129</v>
+        <v>23.800393490000001</v>
       </c>
       <c r="C16" s="2">
-        <v>76.919997109999997</v>
+        <v>86.41998572</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>8.900372741</v>
+        <v>12.57038129</v>
       </c>
       <c r="C17" s="2">
-        <v>76.569992630000002</v>
+        <v>76.919997109999997</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18">
       <c r="A18" s="3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2">
-        <v>10.562573309999999</v>
+        <v>8.900372741</v>
       </c>
       <c r="C18" s="2">
-        <v>72.636867170000002</v>
+        <v>76.569992630000002</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18">
       <c r="A19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="2">
-        <v>21.300391050000002</v>
+        <v>10.562573309999999</v>
       </c>
       <c r="C19" s="2">
-        <v>76.130019489999995</v>
+        <v>72.636867170000002</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18">
       <c r="A20" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2">
-        <v>19.25023195</v>
+        <v>21.300391050000002</v>
       </c>
       <c r="C20" s="2">
-        <v>73.160174929999997</v>
+        <v>76.130019489999995</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18">
       <c r="A21" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2">
-        <v>24.799970720000001</v>
+        <v>19.25023195</v>
       </c>
       <c r="C21" s="2">
-        <v>93.95001705</v>
+        <v>73.160174929999997</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18">
       <c r="A22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="2">
-        <v>25.570492170000001</v>
+        <v>24.799970720000001</v>
       </c>
       <c r="C22" s="2">
-        <v>91.880014200000005</v>
+        <v>93.95001705</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18">
       <c r="A23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="2">
-        <v>23.710398990000002</v>
+        <v>25.570492170000001</v>
       </c>
       <c r="C23" s="2">
-        <v>92.720014610000007</v>
+        <v>91.880014200000005</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
       <c r="A24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2">
-        <v>25.666997899999998</v>
+        <v>23.710398990000002</v>
       </c>
       <c r="C24" s="2">
-        <v>94.116570190000004</v>
+        <v>92.720014610000007</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18">
       <c r="A25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="2">
-        <v>19.820429709999999</v>
+        <v>25.666997899999998</v>
       </c>
       <c r="C25" s="2">
-        <v>85.900017460000001</v>
+        <v>94.116570190000004</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18">
       <c r="A26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2">
-        <v>11.934993710000001</v>
+        <v>19.820429709999999</v>
       </c>
       <c r="C26" s="2">
-        <v>79.830000369999993</v>
+        <v>85.900017460000001</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18">
       <c r="A27" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B27" s="2">
-        <v>31.51997398</v>
+        <v>11.934993710000001</v>
       </c>
       <c r="C27" s="2">
-        <v>75.980002810000002</v>
+        <v>79.830000369999993</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2">
-        <v>26.449999210000001</v>
+        <v>31.51997398</v>
       </c>
       <c r="C28" s="2">
-        <v>74.639981239999997</v>
+        <v>75.980002810000002</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18">
       <c r="A29" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>27.3333303</v>
+        <v>26.449999210000001</v>
       </c>
       <c r="C29" s="2">
-        <v>88.616647499999999</v>
+        <v>74.639981239999997</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18">
       <c r="A30" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B30" s="2">
-        <v>18.112400000000001</v>
+        <v>27.3333303</v>
       </c>
       <c r="C30" s="2">
-        <v>79.019300000000001</v>
-      </c>
-      <c r="D30" s="2"/>
+        <v>88.616647499999999</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="18">
       <c r="A31" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2">
-        <v>12.92038576</v>
+        <v>18.112400000000001</v>
       </c>
       <c r="C31" s="2">
-        <v>79.150041869999995</v>
+        <v>79.019300000000001</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" ht="18">
       <c r="A32" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>23.835404279999999</v>
+        <v>12.92038576</v>
       </c>
       <c r="C32" s="2">
-        <v>91.279999140000001</v>
-      </c>
+        <v>79.150041869999995</v>
+      </c>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="18">
       <c r="A33" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B33" s="2">
-        <v>27.599980689999999</v>
+        <v>23.835404279999999</v>
       </c>
       <c r="C33" s="2">
-        <v>78.050005650000003</v>
+        <v>91.279999140000001</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18">
       <c r="A34" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B34" s="2">
-        <v>30.320408950000001</v>
+        <v>27.599980689999999</v>
       </c>
       <c r="C34" s="2">
         <v>78.050005650000003</v>
@@ -916,23 +918,34 @@
     </row>
     <row r="35" spans="1:3" ht="18">
       <c r="A35" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>22.580390439999999</v>
+        <v>30.320408950000001</v>
       </c>
       <c r="C35" s="2">
-        <v>88.329946649999997</v>
+        <v>78.050005650000003</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
       <c r="A36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="2">
+        <v>22.580390439999999</v>
+      </c>
+      <c r="C36" s="2">
+        <v>88.329946649999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18">
+      <c r="A37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B37" s="2">
         <v>34.1</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C37" s="2">
         <v>77.34</v>
       </c>
     </row>

--- a/c1dataset/Indian Coordinates.xlsx
+++ b/c1dataset/Indian Coordinates.xlsx
@@ -29,60 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
-    <t xml:space="preserve">Andaman And Nicobar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arunachal Pradesh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assam </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bihar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chandigarh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chhattisgarh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dadra And Nagar Haveli </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Himachal Pradesh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jharkhand </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lakshadweep </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madhya Pradesh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manipur </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meghalaya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mizoram </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nagaland </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orissa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puducherry </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sikkim </t>
   </si>
   <si>
@@ -98,9 +44,6 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>Union Territory of Jammu and Kashmir</t>
-  </si>
-  <si>
     <t>Union Territory of Ladakh</t>
   </si>
   <si>
@@ -137,20 +80,77 @@
     <t>Andhra Pradesh</t>
   </si>
   <si>
-    <t>Telengana</t>
-  </si>
-  <si>
     <t>Uttarakhand</t>
   </si>
   <si>
     <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Andaman &amp; Nicobar Island</t>
+  </si>
+  <si>
+    <t>Arunanchal Pradesh</t>
+  </si>
+  <si>
+    <t>Assam</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh</t>
+  </si>
+  <si>
+    <t>Daman &amp; Diu</t>
+  </si>
+  <si>
+    <t>Jammu &amp; Kashmir</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>Lakshadweep</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Manipur</t>
+  </si>
+  <si>
+    <t>Meghalaya</t>
+  </si>
+  <si>
+    <t>Mizoram</t>
+  </si>
+  <si>
+    <t>Nagaland</t>
+  </si>
+  <si>
+    <t>Orissa</t>
+  </si>
+  <si>
+    <t>Puducherry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,6 +188,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Open Sans"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -209,13 +214,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,7 +528,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -532,7 +538,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
@@ -542,117 +550,117 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.5">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2">
-        <v>11.66702557</v>
+        <v>18.112400000000001</v>
       </c>
       <c r="C2" s="2">
-        <v>92.735982620000001</v>
+        <v>79.019300000000001</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2">
-        <v>14.7504291</v>
+        <v>11.66702557</v>
       </c>
       <c r="C3" s="2">
-        <v>78.57002559</v>
+        <v>92.735982620000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
+        <v>14.7504291</v>
+      </c>
+      <c r="C4" s="2">
+        <v>78.57002559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2">
         <v>27.100398779999999</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>93.61660071</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>26.749980900000001</v>
-      </c>
-      <c r="C5" s="2">
-        <v>94.216667439999995</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2">
-        <v>25.785414450000001</v>
+        <v>26.749980900000001</v>
       </c>
       <c r="C6" s="2">
-        <v>87.479972700000005</v>
+        <v>94.216667439999995</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>30.71999697</v>
+        <v>25.785414450000001</v>
       </c>
       <c r="C7" s="2">
-        <v>76.780005650000007</v>
+        <v>87.479972700000005</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>22.090420349999999</v>
+        <v>30.71999697</v>
       </c>
       <c r="C8" s="2">
-        <v>82.159987340000001</v>
+        <v>76.780005650000007</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2">
-        <v>20.266578190000001</v>
+        <v>22.090420349999999</v>
       </c>
       <c r="C9" s="2">
-        <v>73.016617800000006</v>
+        <v>82.159987340000001</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18">
       <c r="A10" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2">
-        <v>28.6699929</v>
+        <v>20.266578190000001</v>
       </c>
       <c r="C10" s="2">
-        <v>77.230004030000003</v>
+        <v>73.016617800000006</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2">
         <v>15.491997</v>
@@ -663,7 +671,7 @@
     </row>
     <row r="12" spans="1:3" ht="18">
       <c r="A12" s="3" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5">
         <v>22.309425000000001</v>
@@ -674,7 +682,7 @@
     </row>
     <row r="13" spans="1:3" ht="18">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2">
         <v>28.450006330000001</v>
@@ -685,7 +693,7 @@
     </row>
     <row r="14" spans="1:3" ht="18">
       <c r="A14" s="3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2">
         <v>31.10002545</v>
@@ -696,7 +704,7 @@
     </row>
     <row r="15" spans="1:3" ht="18">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2">
         <v>33.450000000000003</v>
@@ -707,7 +715,7 @@
     </row>
     <row r="16" spans="1:3" ht="18">
       <c r="A16" s="3" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2">
         <v>23.800393490000001</v>
@@ -718,7 +726,7 @@
     </row>
     <row r="17" spans="1:4" ht="18">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2">
         <v>12.57038129</v>
@@ -729,7 +737,7 @@
     </row>
     <row r="18" spans="1:4" ht="18">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2">
         <v>8.900372741</v>
@@ -740,7 +748,7 @@
     </row>
     <row r="19" spans="1:4" ht="18">
       <c r="A19" s="3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2">
         <v>10.562573309999999</v>
@@ -751,7 +759,7 @@
     </row>
     <row r="20" spans="1:4" ht="18">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2">
         <v>21.300391050000002</v>
@@ -762,7 +770,7 @@
     </row>
     <row r="21" spans="1:4" ht="18">
       <c r="A21" s="3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2">
         <v>19.25023195</v>
@@ -773,7 +781,7 @@
     </row>
     <row r="22" spans="1:4" ht="18">
       <c r="A22" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2">
         <v>24.799970720000001</v>
@@ -784,7 +792,7 @@
     </row>
     <row r="23" spans="1:4" ht="18">
       <c r="A23" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2">
         <v>25.570492170000001</v>
@@ -795,7 +803,7 @@
     </row>
     <row r="24" spans="1:4" ht="18">
       <c r="A24" s="3" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2">
         <v>23.710398990000002</v>
@@ -806,7 +814,7 @@
     </row>
     <row r="25" spans="1:4" ht="18">
       <c r="A25" s="3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2">
         <v>25.666997899999998</v>
@@ -817,7 +825,7 @@
     </row>
     <row r="26" spans="1:4" ht="18">
       <c r="A26" s="3" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2">
         <v>19.820429709999999</v>
@@ -828,7 +836,7 @@
     </row>
     <row r="27" spans="1:4" ht="18">
       <c r="A27" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2">
         <v>11.934993710000001</v>
@@ -839,7 +847,7 @@
     </row>
     <row r="28" spans="1:4" ht="18">
       <c r="A28" s="3" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B28" s="2">
         <v>31.51997398</v>
@@ -850,7 +858,7 @@
     </row>
     <row r="29" spans="1:4" ht="18">
       <c r="A29" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B29" s="2">
         <v>26.449999210000001</v>
@@ -861,7 +869,7 @@
     </row>
     <row r="30" spans="1:4" ht="18">
       <c r="A30" s="3" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B30" s="2">
         <v>27.3333303</v>
@@ -872,45 +880,45 @@
     </row>
     <row r="31" spans="1:4" ht="18">
       <c r="A31" s="3" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B31" s="2">
-        <v>18.112400000000001</v>
+        <v>12.92038576</v>
       </c>
       <c r="C31" s="2">
-        <v>79.019300000000001</v>
+        <v>79.150041869999995</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" ht="18">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B32" s="2">
-        <v>12.92038576</v>
+        <v>23.835404279999999</v>
       </c>
       <c r="C32" s="2">
-        <v>79.150041869999995</v>
+        <v>91.279999140000001</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="18">
       <c r="A33" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B33" s="2">
-        <v>23.835404279999999</v>
+        <v>27.599980689999999</v>
       </c>
       <c r="C33" s="2">
-        <v>91.279999140000001</v>
+        <v>78.050005650000003</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B34" s="2">
-        <v>27.599980689999999</v>
+        <v>30.320408950000001</v>
       </c>
       <c r="C34" s="2">
         <v>78.050005650000003</v>
@@ -918,38 +926,39 @@
     </row>
     <row r="35" spans="1:3" ht="18">
       <c r="A35" s="3" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B35" s="2">
-        <v>30.320408950000001</v>
+        <v>22.580390439999999</v>
       </c>
       <c r="C35" s="2">
-        <v>78.050005650000003</v>
+        <v>88.329946649999997</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18">
       <c r="A36" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B36" s="2">
-        <v>22.580390439999999</v>
+        <v>34.1</v>
       </c>
       <c r="C36" s="2">
-        <v>88.329946649999997</v>
+        <v>77.34</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18">
       <c r="A37" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B37" s="2">
-        <v>34.1</v>
+        <v>28.6699929</v>
       </c>
       <c r="C37" s="2">
-        <v>77.34</v>
+        <v>77.230004030000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>